--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>973080.7165486346</v>
+        <v>969606.746520336</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564205</v>
+        <v>189902.9539564208</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8730793.489920922</v>
+        <v>8730793.489920923</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.3224055697213</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>246.6046323175892</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>370.3546857330383</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>136.069602391245</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984498</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755717</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>153.055538822593</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>262.8957025003241</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>187.7921753589443</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250886</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229476</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>17.13267830033029</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>230.2634979541065</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.3455824551708</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.533183649868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1464,10 +1464,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,25 +1531,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755695</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>70.11928264603833</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>146.4340874029178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806823</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231972</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553075</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>63.57678144609398</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -1786,7 +1786,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>17.4969007978994</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>89.45482406992708</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3433235988463</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9.764863467406927</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364063</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>65.85794727735916</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.998219257061883</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2175,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250817</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>125.3787979092685</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>162.3364906735236</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731087</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2333,7 +2333,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>307.9895902233678</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2485,19 +2485,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.37682225755729</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>94.63926978364046</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>63.37099713517644</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>11.75685339834143</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,10 +2649,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>16.88986550434877</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>332.8153673247214</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>51.87964945459832</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>6.390346842435374</v>
       </c>
       <c r="F31" t="n">
-        <v>25.31590541686268</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>9.355626345427588</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3083,19 +3083,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>211.0523639733264</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.31785343914007</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>105.8247259764148</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,16 +3269,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>60.48389944298043</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229432</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>16.88986550434939</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>95.33023562355996</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>164.8783252168516</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>17.49690079789933</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>156.1271626621476</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>111.8822753849635</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>135.1787052649177</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>88.06311349350466</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>353.8660181395772</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>162.3364906735237</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>381.1377017843616</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C2" t="n">
-        <v>381.1377017843616</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="D2" t="n">
-        <v>381.1377017843616</v>
+        <v>1612.648978880278</v>
       </c>
       <c r="E2" t="n">
-        <v>381.1377017843616</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2070.717079250664</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C5" t="n">
-        <v>2070.717079250664</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D5" t="n">
-        <v>1712.451380643914</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E5" t="n">
-        <v>1326.663128045669</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2559.705048198784</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2305.943262836876</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1974.880375493305</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1622.111720223191</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1248.645961962111</v>
       </c>
       <c r="Y5" t="n">
-        <v>2070.717079250664</v>
+        <v>858.5066299862995</v>
       </c>
     </row>
     <row r="6">
@@ -4641,37 +4641,37 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430049</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073965</v>
       </c>
       <c r="T6" t="n">
         <v>2289.884200196743</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="D7" t="n">
-        <v>377.5443364482876</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="E7" t="n">
-        <v>377.5443364482876</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>377.5443364482876</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>208.54453618662</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>618.3948626148824</v>
+        <v>2014.892857925729</v>
       </c>
       <c r="C8" t="n">
-        <v>618.3948626148824</v>
+        <v>2014.892857925729</v>
       </c>
       <c r="D8" t="n">
-        <v>618.3948626148824</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>618.3948626148824</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280444</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2452.431335529581</v>
+        <v>2388.358616186809</v>
       </c>
       <c r="V8" t="n">
-        <v>2121.36844818601</v>
+        <v>2388.358616186809</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.599792915896</v>
+        <v>2388.358616186809</v>
       </c>
       <c r="X8" t="n">
-        <v>1395.134034654816</v>
+        <v>2014.892857925729</v>
       </c>
       <c r="Y8" t="n">
-        <v>1004.994702679004</v>
+        <v>2014.892857925729</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673431</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641995</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517454</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152627</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
@@ -4914,19 +4914,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="C10" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="D10" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="E10" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406186</v>
+        <v>513.8405610245976</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406186</v>
+        <v>286.5323736931994</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1261.831893336434</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C11" t="n">
-        <v>892.8693763960225</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>534.603677789272</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>534.603677789272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
         <v>534.603677789272</v>
@@ -5036,13 +5036,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224079</v>
@@ -5054,37 +5054,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2134.880026519316</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1782.111371249202</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1408.645612988122</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1408.645612988122</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064347</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>261.0994509500377</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2255.520561484595</v>
+        <v>1920.40991897829</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>1193.181703431128</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>807.3934508328834</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>396.4075460432759</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036447</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733129</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y14" t="n">
-        <v>2642.120401548716</v>
+        <v>2307.009759042412</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424005</v>
@@ -5355,25 +5355,25 @@
         <v>53.94298182036447</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598712</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5388,19 +5388,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C16" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="D16" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="E16" t="n">
-        <v>365.6939024587814</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F16" t="n">
-        <v>365.6939024587814</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>365.6939024587814</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H16" t="n">
-        <v>207.9455298913116</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>71.61661898995982</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036447</v>
@@ -5458,28 +5458,28 @@
         <v>728.1289842064347</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S16" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T16" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U16" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V16" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W16" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X16" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y16" t="n">
-        <v>365.6939024587814</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1373.145632153538</v>
+        <v>1700.479318410389</v>
       </c>
       <c r="C17" t="n">
-        <v>1004.183115213127</v>
+        <v>1331.516801469977</v>
       </c>
       <c r="D17" t="n">
-        <v>1004.183115213127</v>
+        <v>973.2511028632266</v>
       </c>
       <c r="E17" t="n">
-        <v>618.3948626148824</v>
+        <v>973.2511028632266</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>562.2651980736191</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>144.301389971806</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036447</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O17" t="n">
         <v>2238.84331964269</v>
@@ -5543,22 +5543,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>2478.514423990286</v>
+        <v>2443.387305656315</v>
       </c>
       <c r="V17" t="n">
-        <v>2478.514423990286</v>
+        <v>2443.387305656315</v>
       </c>
       <c r="W17" t="n">
-        <v>2149.884804193472</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X17" t="n">
-        <v>2149.884804193472</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y17" t="n">
-        <v>1759.74547221766</v>
+        <v>1700.479318410389</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>53.94298182036447</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641995</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.80648027229066</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C19" t="n">
-        <v>63.80648027229066</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D19" t="n">
-        <v>63.80648027229066</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E19" t="n">
-        <v>63.80648027229066</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F19" t="n">
-        <v>63.80648027229066</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036447</v>
@@ -5704,19 +5704,19 @@
         <v>728.1289842064346</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064346</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005477</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005477</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X19" t="n">
-        <v>245.4549451025304</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.4549451025304</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1461.147548391486</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C20" t="n">
-        <v>1394.624369323446</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D20" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533143</v>
@@ -5756,16 +5756,16 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P20" t="n">
         <v>2544.691559791253</v>
@@ -5780,22 +5780,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.752638628377</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.752638628377</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X20" t="n">
-        <v>1851.286880367297</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y20" t="n">
-        <v>1461.147548391486</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572649</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>507.3364050629044</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C22" t="n">
-        <v>507.3364050629044</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D22" t="n">
-        <v>507.3364050629044</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E22" t="n">
-        <v>507.3364050629044</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F22" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5947,13 +5947,13 @@
         <v>728.1289842064346</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064346</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064346</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
-        <v>507.3364050629044</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2307.009759042412</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>1938.047242102</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>1579.781543495249</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>1193.993290897005</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>783.0073861073977</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>365.0435780055845</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6029,10 +6029,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018223</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042412</v>
+        <v>1933.544000781332</v>
       </c>
     </row>
     <row r="24">
@@ -6057,34 +6057,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572649</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>2362.69689653384</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J25" t="n">
         <v>2022.963088632153</v>
@@ -6151,7 +6151,7 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
         <v>2351.73700797761</v>
@@ -6169,28 +6169,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="U25" t="n">
-        <v>2407.975480672791</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="V25" t="n">
-        <v>2407.975480672791</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="W25" t="n">
-        <v>2118.55831063583</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>2678.586644293418</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1268.68094731003</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036447</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6239,7 +6239,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
         <v>2544.691559791253</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2630.244792055442</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2376.483006693534</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2045.420119349963</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W26" t="n">
-        <v>2045.420119349963</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X26" t="n">
-        <v>2045.420119349963</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y26" t="n">
-        <v>1655.280787374151</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658211</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064346</v>
+        <v>2680.08862081181</v>
       </c>
       <c r="U28" t="n">
-        <v>598.044640063212</v>
+        <v>2680.08862081181</v>
       </c>
       <c r="V28" t="n">
-        <v>343.3601518573251</v>
+        <v>2425.404132605923</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036447</v>
+        <v>2425.404132605923</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036447</v>
+        <v>2425.404132605923</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036447</v>
+        <v>2204.611553462393</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1331.061315312043</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C29" t="n">
-        <v>1331.061315312043</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="D29" t="n">
-        <v>972.7956167052923</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="E29" t="n">
-        <v>587.007364107048</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>587.007364107048</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6467,7 +6467,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,10 +6479,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6494,19 +6494,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2057.295728843237</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.527073573123</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X29" t="n">
-        <v>1331.061315312043</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y29" t="n">
-        <v>1331.061315312043</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6561,28 +6561,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.4805193761948</v>
+        <v>398.3338608103787</v>
       </c>
       <c r="C31" t="n">
-        <v>377.5443364482879</v>
+        <v>229.3976778824718</v>
       </c>
       <c r="D31" t="n">
-        <v>227.4276970359522</v>
+        <v>229.3976778824718</v>
       </c>
       <c r="E31" t="n">
-        <v>79.51460345355909</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,7 +6628,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
         <v>529.6040388502502</v>
@@ -6637,34 +6637,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>843.3415311720278</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C32" t="n">
-        <v>474.3790142316161</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D32" t="n">
-        <v>474.3790142316161</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E32" t="n">
-        <v>474.3790142316161</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>63.39310944200849</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533132</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733118</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224067</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862887</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.546461473041</v>
+        <v>2089.152730270792</v>
       </c>
       <c r="V32" t="n">
-        <v>1993.546461473041</v>
+        <v>1758.089842927221</v>
       </c>
       <c r="W32" t="n">
-        <v>1993.546461473041</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="X32" t="n">
-        <v>1620.080703211961</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="Y32" t="n">
-        <v>1229.94137123615</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673431</v>
+        <v>115.9856282673418</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036516</v>
+        <v>53.9429818203638</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036447</v>
+        <v>53.9429818203638</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641981</v>
       </c>
       <c r="L33" t="n">
-        <v>713.806220357135</v>
+        <v>670.82192085987</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.69838933464737</v>
+        <v>2191.899271560059</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658211</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064346</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064346</v>
+        <v>2519.585513306028</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064346</v>
+        <v>2412.691850703589</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064346</v>
+        <v>2412.691850703589</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064346</v>
+        <v>2412.691850703589</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064346</v>
+        <v>2412.691850703589</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064346</v>
+        <v>2412.691850703589</v>
       </c>
       <c r="X34" t="n">
-        <v>500.1394333084172</v>
+        <v>2412.691850703589</v>
       </c>
       <c r="Y34" t="n">
-        <v>279.3468541648871</v>
+        <v>2191.899271560059</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.952954307291</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.952954307291</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E35" t="n">
-        <v>737.1647017090463</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733129</v>
@@ -6947,40 +6947,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.054243096021</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2304.99135575245</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>1952.222700482336</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>1578.756942221256</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="36">
@@ -7005,37 +7005,37 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>319.1723320447966</v>
+        <v>71.00345202677801</v>
       </c>
       <c r="C37" t="n">
-        <v>150.2361491168897</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D37" t="n">
-        <v>150.2361491168897</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L37" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T37" t="n">
-        <v>500.8207968750363</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U37" t="n">
-        <v>500.8207968750363</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V37" t="n">
-        <v>500.8207968750363</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="W37" t="n">
-        <v>500.8207968750363</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="X37" t="n">
-        <v>500.8207968750363</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="Y37" t="n">
-        <v>500.8207968750363</v>
+        <v>252.6519168570177</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>422.9054987607762</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424005</v>
@@ -7248,19 +7248,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7272,22 +7272,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>365.6939024587813</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>365.6939024587813</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>365.6939024587813</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>365.6939024587813</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>365.6939024587813</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>348.020265289186</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406186</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>365.6939024587813</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T40" t="n">
-        <v>365.6939024587813</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U40" t="n">
-        <v>365.6939024587813</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V40" t="n">
-        <v>365.6939024587813</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W40" t="n">
-        <v>365.6939024587813</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>365.6939024587813</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>365.6939024587813</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733129</v>
@@ -7424,37 +7424,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2584.136691639472</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2253.073804295901</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1900.305149025787</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1526.839390764707</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1136.700058788895</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7500,13 +7500,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.7922583306645</v>
+        <v>290.8087152951865</v>
       </c>
       <c r="C43" t="n">
-        <v>201.8560754027576</v>
+        <v>290.8087152951865</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8560754027576</v>
+        <v>290.8087152951865</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>142.8956217127934</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>142.8956217127934</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7579,40 +7579,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064347</v>
+        <v>290.8087152951865</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064347</v>
+        <v>290.8087152951865</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064347</v>
+        <v>290.8087152951865</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064347</v>
+        <v>290.8087152951865</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.3364050629045</v>
+        <v>290.8087152951865</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>923.1150787952347</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
-        <v>565.6746564320254</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="D44" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7661,7 +7661,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
         <v>2544.691559791253</v>
@@ -7673,25 +7673,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.483574129471</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.714918859356</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1309.714918859356</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2186.939341837733</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018223</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W46" t="n">
-        <v>2407.731920981263</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>2407.731920981263</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>2186.939341837733</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783516</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747203</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415599</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050817</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951785</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K18" t="n">
-        <v>145.0294169142009</v>
+        <v>221.0467526719083</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747117</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720727</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,7 +10428,7 @@
         <v>50.07369958270189</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.9238900028834</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747209</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028824</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11072,10 +11072,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627451</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714817</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.4114360937593</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>135.3257377546725</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22720,13 +22720,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,28 +22781,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>36.52136000867313</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>80.37871796641284</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,31 +22939,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.057140389012</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.115350019202168</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23018,25 +23018,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.78733912035887</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23075,19 +23075,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>63.43199214934498</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23188,19 +23188,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>128.2883697226009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23221,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787121</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.3882592083097</v>
+        <v>164.3604017932788</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23315,13 +23315,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23419,25 +23419,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890122</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>86.05160619575682</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>218.8388043680898</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>74.74425144011269</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>82.8571812004752</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>27.70305839063758</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>29.12274995491427</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>234.46794869443</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,16 +23783,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>23.89764511856669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>157.544938791644</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23944,16 +23944,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>299.4149444936484</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,16 +24020,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>325.754039213073</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>20.04225011366273</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>63.37316471551358</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>89.79231049789888</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>15.93318254098932</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448612</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24373,19 +24373,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>29.12274995491428</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>128.2883697226005</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,16 +24418,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>131.0703856053967</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>343.505048606535</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>204.6914669593164</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801578</v>
@@ -24652,22 +24652,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>208.1452399537355</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>49.11500274754042</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>361.9045205661967</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>140.0436158041338</v>
       </c>
       <c r="F31" t="n">
-        <v>120.1051426060686</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24880,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24929,13 +24929,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.4285436753674</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24971,19 +24971,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>40.17180353496292</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.9289676594878</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>106.3208129736041</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25157,16 +25157,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,19 +25208,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>190.7402680653089</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>150.3569555942784</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>51.10372702300921</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25363,13 +25363,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,22 +25436,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576569</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>86.34584229143772</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>149.8129014611516</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853698</v>
@@ -25594,16 +25594,16 @@
         <v>29.12274995491428</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>56.01837628787132</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25634,16 +25634,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448612</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25682,13 +25682,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>139.3418921233257</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.65327491701964</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>79.24668876554625</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25828,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,7 +25840,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>11.40687363143036</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>133.6808629223865</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>4.910330425104149</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801578</v>
@@ -26074,22 +26074,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168062</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.974610786</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.974610786</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>274694.9795149699</v>
       </c>
       <c r="D2" t="n">
+        <v>274694.97951497</v>
+      </c>
+      <c r="E2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="E2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149699</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149695</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="J2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="M2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149699</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966325</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340949</v>
@@ -26485,31 +26485,31 @@
         <v>49231.47806340949</v>
       </c>
       <c r="H5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="L5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="M5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="N5" t="n">
         <v>49231.47806340948</v>
       </c>
-      <c r="I5" t="n">
+      <c r="O5" t="n">
         <v>49231.47806340948</v>
       </c>
-      <c r="J5" t="n">
-        <v>49231.47806340949</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>49231.47806340948</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340949</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="P5" t="n">
-        <v>49231.47806340949</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-415945.69082318</v>
+        <v>-416360.9053326474</v>
       </c>
       <c r="C6" t="n">
-        <v>174022.1883913644</v>
+        <v>173606.9738818971</v>
       </c>
       <c r="D6" t="n">
-        <v>174022.1883913641</v>
+        <v>173606.9738818972</v>
       </c>
       <c r="E6" t="n">
-        <v>207649.7883913644</v>
+        <v>207234.5738818974</v>
       </c>
       <c r="F6" t="n">
-        <v>207649.7883913644</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="G6" t="n">
-        <v>207649.788391364</v>
+        <v>207234.5738818972</v>
       </c>
       <c r="H6" t="n">
-        <v>207649.7883913644</v>
+        <v>207234.5738818968</v>
       </c>
       <c r="I6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="J6" t="n">
-        <v>31226.56919877134</v>
+        <v>30811.35468930414</v>
       </c>
       <c r="K6" t="n">
-        <v>207649.7883913644</v>
+        <v>207234.573881897</v>
       </c>
       <c r="L6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="M6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="N6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="O6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="P6" t="n">
-        <v>207649.7883913644</v>
+        <v>207234.573881897</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.743664217087</v>
+      </c>
+      <c r="D3" t="n">
+        <v>377.743664217087</v>
+      </c>
+      <c r="E3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
-      </c>
-      <c r="E3" t="n">
-        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170869</v>
@@ -26759,10 +26759,10 @@
         <v>377.7436642170868</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170868</v>
@@ -26774,10 +26774,10 @@
         <v>377.7436642170868</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170868</v>
       </c>
     </row>
     <row r="4">
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545559</v>
+      </c>
+      <c r="D4" t="n">
+        <v>674.2872727545561</v>
+      </c>
+      <c r="E4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545558</v>
-      </c>
-      <c r="E4" t="n">
-        <v>674.2872727545558</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545558</v>
@@ -26805,31 +26805,31 @@
         <v>674.2872727545558</v>
       </c>
       <c r="H4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="M4" t="n">
+        <v>674.2872727545559</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="J4" t="n">
-        <v>674.2872727545558</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545558</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="P4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,46 +31753,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31929,28 +31929,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32950,34 +32950,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,40 +33014,40 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
@@ -33056,7 +33056,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,25 +33117,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33187,34 +33187,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,40 +33251,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
@@ -33293,7 +33293,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,25 +33354,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34123,10 +34123,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34138,28 +34138,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O41" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472037</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
         <v>76.7639270839648</v>
@@ -34220,7 +34220,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923048</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,16 +34281,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34299,19 +34299,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34360,10 +34360,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34375,28 +34375,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O44" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472037</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
         <v>76.7639270839648</v>
@@ -34457,7 +34457,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923048</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,16 +34518,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34536,19 +34536,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,10 +35568,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
         <v>146.3614835535656</v>
@@ -35580,10 +35580,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031299</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262939</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713858</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031299</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031299</v>
@@ -36446,7 +36446,7 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36765,10 +36765,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36835,22 +36835,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031299</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37002,10 +37002,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.93722851813</v>
       </c>
       <c r="K32" t="n">
         <v>297.223041434342</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713858</v>
@@ -37157,7 +37157,7 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932201</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37312,7 +37312,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492238</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031299</v>
@@ -37394,7 +37394,7 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031299</v>
@@ -37631,7 +37631,7 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37786,16 +37786,16 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492238</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116789</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.997506289869</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.223041434342</v>
@@ -38023,7 +38023,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492238</v>
@@ -38032,7 +38032,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.997506289869</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031299</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>998451.0572750628</v>
+        <v>947131.3959306959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>189902.9539564202</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5113366705979</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>55.25262795305083</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17.51547160264154</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>280.0362772493056</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.011312036262</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,13 +1192,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>202.0903689981446</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>356.2789089742632</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>144.8353798824971</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>70.11928264603833</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>5.791117132838708</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>3.157468607397832</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>52.17142175228562</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>38.39834678541102</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>8.892594560364216</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>144.0258383958638</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>22.35153719005459</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>26.22605207193348</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>33.41419987006879</v>
       </c>
       <c r="V23" t="n">
-        <v>323.9918595228955</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>56.881969878158</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>285.5453800016783</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>253.6915800531449</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>43.3178534391397</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.440065804380628</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>195.0001439781025</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.3236091729815</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.0143205168124</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>213.9154470216035</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>296.2138270568548</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>319.0951277937004</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.161932497468213</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>101.0648684641362</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>243.9223155524612</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>80.74987568070237</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.024624796403</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>106.5086923530793</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>88.06311349350432</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>193.5756411391281</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>280.1033070984082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.553858340638264</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>129.0246247964033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>1735.606436744359</v>
       </c>
       <c r="C2" t="n">
-        <v>159.5099885583422</v>
+        <v>1366.643919803947</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>1008.378221197197</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>1008.378221197197</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.48636361053</v>
+        <v>1258.850788876759</v>
       </c>
       <c r="C5" t="n">
-        <v>1979.48636361053</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1621.220665003779</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1235.432412405535</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y5" t="n">
-        <v>2366.086203674652</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>983.6384645338385</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C8" t="n">
-        <v>983.6384645338385</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>625.3727659270879</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>625.3727659270879</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>2008.049442644265</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="X8" t="n">
-        <v>1209.912517095719</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y8" t="n">
-        <v>1209.912517095719</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4895,13 +4895,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4910,16 +4910,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810045</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810045</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810045</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810045</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>576.3714747656866</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C11" t="n">
-        <v>207.4089578252748</v>
+        <v>1003.993406038096</v>
       </c>
       <c r="D11" t="n">
-        <v>207.4089578252748</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E11" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y11" t="n">
-        <v>936.2491605982757</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5120,43 +5120,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5235,16 +5235,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1995.909162857192</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5278,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2636.270788283222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>2382.509002921313</v>
+        <v>2299.147574074761</v>
       </c>
       <c r="V14" t="n">
-        <v>2382.509002921313</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="W14" t="n">
-        <v>2382.509002921313</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="X14" t="n">
-        <v>2382.509002921313</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="Y14" t="n">
-        <v>2382.509002921313</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5357,43 +5357,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D16" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E16" t="n">
-        <v>99.59950625323012</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F16" t="n">
-        <v>99.59950625323012</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G16" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5460,28 +5460,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>808.0839286340174</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C17" t="n">
-        <v>799.1015098861748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>799.1015098861748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5545,22 +5545,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2311.057514205145</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W17" t="n">
-        <v>1958.288858935031</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X17" t="n">
-        <v>1584.823100673951</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y17" t="n">
-        <v>1194.683768698139</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>76.52029211334889</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V19" t="n">
-        <v>76.52029211334889</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W19" t="n">
-        <v>76.52029211334889</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>76.52029211334889</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1210.087414675782</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,7 +5752,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733127</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.658129329401</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.658129329401</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.658129329401</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.658129329401</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2339.59524198583</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>1986.826586715716</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1986.826586715716</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1596.687254739904</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5843,7 +5843,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>2442.464602812336</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>2153.047432775375</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1219.679656148628</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C23" t="n">
-        <v>850.7171392082163</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082163</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2663.397373977749</v>
       </c>
       <c r="V23" t="n">
-        <v>2369.884586449642</v>
+        <v>2332.334486634178</v>
       </c>
       <c r="W23" t="n">
-        <v>2369.884586449642</v>
+        <v>1979.565831364064</v>
       </c>
       <c r="X23" t="n">
-        <v>1996.418828188562</v>
+        <v>1606.100073102984</v>
       </c>
       <c r="Y23" t="n">
-        <v>1606.27949621275</v>
+        <v>1215.960741127172</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018223</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V25" t="n">
-        <v>2540.369809567132</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W25" t="n">
-        <v>2250.952639530171</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1139.146815977588</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C26" t="n">
-        <v>1139.146815977588</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D26" t="n">
-        <v>1139.146815977588</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
-        <v>753.3585633793441</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>342.3726585897365</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6262,16 +6262,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2385.866280282913</v>
       </c>
       <c r="W26" t="n">
-        <v>2289.351746278602</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X26" t="n">
-        <v>1915.885988017522</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y26" t="n">
-        <v>1525.74665604171</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2066.718496146436</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>2469.159540120206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>2248.366960976676</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1920.409918978289</v>
+        <v>1834.613306652565</v>
       </c>
       <c r="C29" t="n">
-        <v>1551.447402037877</v>
+        <v>1465.650789712153</v>
       </c>
       <c r="D29" t="n">
-        <v>1193.181703431127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>807.3934508328825</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>396.407546043275</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X29" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y29" t="n">
-        <v>2307.009759042411</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6554,37 +6554,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2165.714209008902</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2334.714009270569</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T31" t="n">
-        <v>2334.714009270569</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U31" t="n">
-        <v>2334.714009270569</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V31" t="n">
-        <v>2334.714009270569</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W31" t="n">
-        <v>2334.714009270569</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247702</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C32" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D32" t="n">
         <v>1268.68094731003</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C34" t="n">
         <v>53.94298182036445</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V34" t="n">
-        <v>473.4444960005474</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W34" t="n">
-        <v>184.0273259635867</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1704.527073573122</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="C35" t="n">
-        <v>1335.56455663271</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="D35" t="n">
-        <v>1036.358670716696</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>794.2251008249052</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>376.2612927230921</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>2057.295728843236</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.527073573122</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="X35" t="n">
-        <v>1704.527073573122</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="Y35" t="n">
-        <v>1704.527073573122</v>
+        <v>1563.476704221263</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7037,28 +7037,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.7832764526929</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C37" t="n">
-        <v>101.7832764526929</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>101.7832764526929</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>101.7832764526929</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>101.7832764526929</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>101.7832764526929</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>101.7832764526929</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>322.5758555962231</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>101.7832764526929</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1370.766673031379</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>711.3150639356904</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>300.3291591460829</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T38" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V38" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W38" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.505845071313</v>
+        <v>1873.842488573868</v>
       </c>
       <c r="Y38" t="n">
-        <v>1757.366513095501</v>
+        <v>1483.703156598056</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7250,46 +7250,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,7 +7414,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
         <v>881.2824271224076</v>
@@ -7441,22 +7441,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2589.564553287839</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2335.802767925931</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2004.73988058236</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1651.971225312246</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1651.971225312246</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>290.8087152951862</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C43" t="n">
-        <v>290.8087152951862</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D43" t="n">
-        <v>290.8087152951862</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E43" t="n">
-        <v>142.8956217127931</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>142.8956217127931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406182</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="U43" t="n">
-        <v>290.8087152951862</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="V43" t="n">
-        <v>290.8087152951862</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="W43" t="n">
-        <v>290.8087152951862</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="X43" t="n">
-        <v>290.8087152951862</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="Y43" t="n">
-        <v>290.8087152951862</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C44" t="n">
-        <v>1491.915471247702</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="D44" t="n">
-        <v>1133.649772640952</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="E44" t="n">
-        <v>747.8615200427075</v>
+        <v>887.4925516215208</v>
       </c>
       <c r="F44" t="n">
-        <v>336.8756152531</v>
+        <v>476.5066468319132</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>58.54283873010007</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7833,16 +7833,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>184.2708856551153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
         <v>53.94298182036445</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>250.171704950085</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>351.6234177886606</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>156.2425264275697</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,10 +22770,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>347.757420168366</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>126.8397684924059</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22840,19 +22840,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -22995,16 +22995,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.7225296272186</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>125.6618894719903</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>72.60755131498752</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23199,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.45493268921734</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>209.8476617381859</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>75.30176537689292</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>45.199959188537</v>
@@ -23475,10 +23475,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>51.04847948014728</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.6572032248191</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>248.0666989008915</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>115.1383805067653</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>247.8835274565667</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>356.3802972106433</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23785,22 +23785,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>183.7264200742711</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>144.9582650689963</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>123.9453835684545</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>28.25235050287822</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24028,13 +24028,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>19.83197231642248</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24262,13 +24262,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>217.8099676382205</v>
       </c>
       <c r="V23" t="n">
-        <v>3.760398947239423</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>110.4278323808929</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24423,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>96.92615468724765</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>128.2387900191167</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24502,7 +24502,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>74.06067841698999</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>159.6828976425805</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,10 +24733,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>14.84727966881366</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24885,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>56.93405031343801</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>144.2707130727115</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24976,16 +24976,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0.2266482006006072</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25128,19 +25128,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>11.11965843648079</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>58.46921456382819</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>4.827644970656763</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>132.80368929487</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>264.2080233068713</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>169.8618544683337</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,19 +25560,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>64.67117234222887</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>83.12091415361593</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>109.9396280045785</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>79.24668876554659</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>31.45946431895615</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>133.6808629223868</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>319.3689144237189</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25918,7 +25918,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="C2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="D2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="E2" t="n">
         <v>274694.9795149698</v>
-      </c>
-      <c r="C2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="D2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="E2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149695</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="K2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="K2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="L2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="M2" t="n">
         <v>274694.9795149698</v>
@@ -26490,10 +26490,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416360.9053326474</v>
+        <v>-422429.3190784664</v>
       </c>
       <c r="C6" t="n">
-        <v>173606.9738818971</v>
+        <v>167538.5601360778</v>
       </c>
       <c r="D6" t="n">
-        <v>173606.9738818971</v>
+        <v>167538.5601360778</v>
       </c>
       <c r="E6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="F6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="G6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.160136078</v>
       </c>
       <c r="H6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="I6" t="n">
-        <v>207234.5738818967</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="J6" t="n">
-        <v>30811.35468930417</v>
+        <v>24742.94094348491</v>
       </c>
       <c r="K6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="L6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="M6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="N6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="O6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="P6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
     </row>
   </sheetData>
@@ -26755,13 +26755,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26770,7 +26770,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26810,10 +26810,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,10 +26822,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35734,19 +35734,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
